--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adm-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adm-Calcrl.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.455024</v>
+        <v>17.956883</v>
       </c>
       <c r="H2">
-        <v>24.910048</v>
+        <v>35.913766</v>
       </c>
       <c r="I2">
-        <v>0.2137786973425757</v>
+        <v>0.3392380274206944</v>
       </c>
       <c r="J2">
-        <v>0.1547465300518145</v>
+        <v>0.2584869083704147</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>84.78612150000001</v>
+        <v>41.6173</v>
       </c>
       <c r="N2">
-        <v>169.572243</v>
+        <v>83.2346</v>
       </c>
       <c r="O2">
-        <v>0.5414245061026678</v>
+        <v>0.411761355892064</v>
       </c>
       <c r="P2">
-        <v>0.4499324752013724</v>
+        <v>0.3324886731607734</v>
       </c>
       <c r="Q2">
-        <v>1056.013178149416</v>
+        <v>747.3169868758999</v>
       </c>
       <c r="R2">
-        <v>4224.052712597664</v>
+        <v>2989.2679475036</v>
       </c>
       <c r="S2">
-        <v>0.1157450256239757</v>
+        <v>0.1396851101408943</v>
       </c>
       <c r="T2">
-        <v>0.06962548929503647</v>
+        <v>0.08594396919350958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.455024</v>
+        <v>17.956883</v>
       </c>
       <c r="H3">
-        <v>24.910048</v>
+        <v>35.913766</v>
       </c>
       <c r="I3">
-        <v>0.2137786973425757</v>
+        <v>0.3392380274206944</v>
       </c>
       <c r="J3">
-        <v>0.1547465300518145</v>
+        <v>0.2584869083704147</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.941352</v>
       </c>
       <c r="O3">
-        <v>0.05734707497829552</v>
+        <v>0.08885253351439082</v>
       </c>
       <c r="P3">
-        <v>0.07148451289065891</v>
+        <v>0.1076198405427232</v>
       </c>
       <c r="Q3">
-        <v>111.8517285841493</v>
+        <v>161.2609019086053</v>
       </c>
       <c r="R3">
-        <v>671.110371504896</v>
+        <v>967.5654114516319</v>
       </c>
       <c r="S3">
-        <v>0.01225958298526703</v>
+        <v>0.03014215820075308</v>
       </c>
       <c r="T3">
-        <v>0.01106198032227367</v>
+        <v>0.02781831986120553</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.455024</v>
+        <v>17.956883</v>
       </c>
       <c r="H4">
-        <v>24.910048</v>
+        <v>35.913766</v>
       </c>
       <c r="I4">
-        <v>0.2137786973425757</v>
+        <v>0.3392380274206944</v>
       </c>
       <c r="J4">
-        <v>0.1547465300518145</v>
+        <v>0.2584869083704147</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.247984000000001</v>
+        <v>13.45113833333333</v>
       </c>
       <c r="N4">
-        <v>24.743952</v>
+        <v>40.353415</v>
       </c>
       <c r="O4">
-        <v>0.05266971273762895</v>
+        <v>0.1330854946963174</v>
       </c>
       <c r="P4">
-        <v>0.06565406798106663</v>
+        <v>0.1611956255073737</v>
       </c>
       <c r="Q4">
-        <v>102.728838671616</v>
+        <v>241.5405172684816</v>
       </c>
       <c r="R4">
-        <v>616.3730320296959</v>
+        <v>1449.24310361089</v>
       </c>
       <c r="S4">
-        <v>0.01125966257845798</v>
+        <v>0.04514766069908601</v>
       </c>
       <c r="T4">
-        <v>0.010159739203856</v>
+        <v>0.04166695888023619</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.455024</v>
+        <v>17.956883</v>
       </c>
       <c r="H5">
-        <v>24.910048</v>
+        <v>35.913766</v>
       </c>
       <c r="I5">
-        <v>0.2137786973425757</v>
+        <v>0.3392380274206944</v>
       </c>
       <c r="J5">
-        <v>0.1547465300518145</v>
+        <v>0.2584869083704147</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.1248205</v>
+        <v>11.258772</v>
       </c>
       <c r="N5">
-        <v>16.249641</v>
+        <v>22.517544</v>
       </c>
       <c r="O5">
-        <v>0.05188321919390227</v>
+        <v>0.1113942332731726</v>
       </c>
       <c r="P5">
-        <v>0.04311578986581963</v>
+        <v>0.0899485109245354</v>
       </c>
       <c r="Q5">
-        <v>101.194834323192</v>
+        <v>202.172451527676</v>
       </c>
       <c r="R5">
-        <v>404.7793372927679</v>
+        <v>808.6898061107039</v>
       </c>
       <c r="S5">
-        <v>0.01109152701321175</v>
+        <v>0.03778915996163175</v>
       </c>
       <c r="T5">
-        <v>0.006672018872178778</v>
+        <v>0.02325051250140562</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.455024</v>
+        <v>17.956883</v>
       </c>
       <c r="H6">
-        <v>24.910048</v>
+        <v>35.913766</v>
       </c>
       <c r="I6">
-        <v>0.2137786973425757</v>
+        <v>0.3392380274206944</v>
       </c>
       <c r="J6">
-        <v>0.1547465300518145</v>
+        <v>0.2584869083704147</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.145873</v>
+        <v>15.450729</v>
       </c>
       <c r="N6">
-        <v>111.437619</v>
+        <v>46.352187</v>
       </c>
       <c r="O6">
-        <v>0.2372049291437092</v>
+        <v>0.1528694346476305</v>
       </c>
       <c r="P6">
-        <v>0.2956816685335552</v>
+        <v>0.1851583014002596</v>
       </c>
       <c r="Q6">
-        <v>462.652739715952</v>
+        <v>277.446932917707</v>
       </c>
       <c r="R6">
-        <v>2775.916438295711</v>
+        <v>1664.681597506242</v>
       </c>
       <c r="S6">
-        <v>0.05070936075558012</v>
+        <v>0.05185912546277894</v>
       </c>
       <c r="T6">
-        <v>0.04575571220549846</v>
+        <v>0.04786099688807053</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.455024</v>
+        <v>17.956883</v>
       </c>
       <c r="H7">
-        <v>24.910048</v>
+        <v>35.913766</v>
       </c>
       <c r="I7">
-        <v>0.2137786973425757</v>
+        <v>0.3392380274206944</v>
       </c>
       <c r="J7">
-        <v>0.1547465300518145</v>
+        <v>0.2584869083704147</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.312984333333333</v>
+        <v>10.313018</v>
       </c>
       <c r="N7">
-        <v>27.938953</v>
+        <v>30.939054</v>
       </c>
       <c r="O7">
-        <v>0.05947055784379619</v>
+        <v>0.1020369479764247</v>
       </c>
       <c r="P7">
-        <v>0.07413148552752709</v>
+        <v>0.1235890484643348</v>
       </c>
       <c r="Q7">
-        <v>115.9934433832906</v>
+        <v>185.189657602894</v>
       </c>
       <c r="R7">
-        <v>695.9606602997438</v>
+        <v>1111.137945617364</v>
       </c>
       <c r="S7">
-        <v>0.01271353838608305</v>
+        <v>0.03461481295555035</v>
       </c>
       <c r="T7">
-        <v>0.01147159015297112</v>
+        <v>0.03194615104598723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>98.26071899999999</v>
       </c>
       <c r="I8">
-        <v>0.5621840768235339</v>
+        <v>0.6187742881378531</v>
       </c>
       <c r="J8">
-        <v>0.6104165397692691</v>
+        <v>0.7072248972319991</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.78612150000001</v>
+        <v>41.6173</v>
       </c>
       <c r="N8">
-        <v>169.572243</v>
+        <v>83.2346</v>
       </c>
       <c r="O8">
-        <v>0.5414245061026678</v>
+        <v>0.411761355892064</v>
       </c>
       <c r="P8">
-        <v>0.4499324752013724</v>
+        <v>0.3324886731607734</v>
       </c>
       <c r="Q8">
-        <v>2777.048419937119</v>
+        <v>1363.1152736129</v>
       </c>
       <c r="R8">
-        <v>16662.29051962272</v>
+        <v>8178.691641677399</v>
       </c>
       <c r="S8">
-        <v>0.3043802361329661</v>
+        <v>0.2547873398747891</v>
       </c>
       <c r="T8">
-        <v>0.2746462246422443</v>
+        <v>0.2351442677069317</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>98.26071899999999</v>
       </c>
       <c r="I9">
-        <v>0.5621840768235339</v>
+        <v>0.6187742881378531</v>
       </c>
       <c r="J9">
-        <v>0.6104165397692691</v>
+        <v>0.7072248972319991</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>26.941352</v>
       </c>
       <c r="O9">
-        <v>0.05734707497829552</v>
+        <v>0.08885253351439082</v>
       </c>
       <c r="P9">
-        <v>0.07148451289065891</v>
+        <v>0.1076198405427232</v>
       </c>
       <c r="Q9">
         <v>294.1418464835654</v>
@@ -1013,10 +1013,10 @@
         <v>2647.276618352088</v>
       </c>
       <c r="S9">
-        <v>0.03223961240520305</v>
+        <v>0.05497966317461191</v>
       </c>
       <c r="T9">
-        <v>0.04363532900580772</v>
+        <v>0.07611143066795155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>98.26071899999999</v>
       </c>
       <c r="I10">
-        <v>0.5621840768235339</v>
+        <v>0.6187742881378531</v>
       </c>
       <c r="J10">
-        <v>0.6104165397692691</v>
+        <v>0.7072248972319991</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.247984000000001</v>
+        <v>13.45113833333333</v>
       </c>
       <c r="N10">
-        <v>24.743952</v>
+        <v>40.353415</v>
       </c>
       <c r="O10">
-        <v>0.05266971273762895</v>
+        <v>0.1330854946963174</v>
       </c>
       <c r="P10">
-        <v>0.06565406798106663</v>
+        <v>0.1611956255073737</v>
       </c>
       <c r="Q10">
-        <v>270.150946046832</v>
+        <v>440.5728413339316</v>
       </c>
       <c r="R10">
-        <v>2431.358514421488</v>
+        <v>3965.155572005385</v>
       </c>
       <c r="S10">
-        <v>0.02961007383196465</v>
+        <v>0.08234988224218782</v>
       </c>
       <c r="T10">
-        <v>0.04007632899877905</v>
+        <v>0.1140015596837002</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>98.26071899999999</v>
       </c>
       <c r="I11">
-        <v>0.5621840768235339</v>
+        <v>0.6187742881378531</v>
       </c>
       <c r="J11">
-        <v>0.6104165397692691</v>
+        <v>0.7072248972319991</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.1248205</v>
+        <v>11.258772</v>
       </c>
       <c r="N11">
-        <v>16.249641</v>
+        <v>22.517544</v>
       </c>
       <c r="O11">
-        <v>0.05188321919390227</v>
+        <v>0.1113942332731726</v>
       </c>
       <c r="P11">
-        <v>0.04311578986581963</v>
+        <v>0.0899485109245354</v>
       </c>
       <c r="Q11">
-        <v>266.1169013586465</v>
+        <v>368.765010592356</v>
       </c>
       <c r="R11">
-        <v>1596.701408151879</v>
+        <v>2212.590063554136</v>
       </c>
       <c r="S11">
-        <v>0.029167919685157</v>
+        <v>0.0689278873962693</v>
       </c>
       <c r="T11">
-        <v>0.02631859125931254</v>
+        <v>0.0636138263947759</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>98.26071899999999</v>
       </c>
       <c r="I12">
-        <v>0.5621840768235339</v>
+        <v>0.6187742881378531</v>
       </c>
       <c r="J12">
-        <v>0.6104165397692691</v>
+        <v>0.7072248972319991</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.145873</v>
+        <v>15.450729</v>
       </c>
       <c r="N12">
-        <v>111.437619</v>
+        <v>46.352187</v>
       </c>
       <c r="O12">
-        <v>0.2372049291437092</v>
+        <v>0.1528694346476305</v>
       </c>
       <c r="P12">
-        <v>0.2956816685335552</v>
+        <v>0.1851583014002596</v>
       </c>
       <c r="Q12">
-        <v>1216.660062954229</v>
+        <v>506.066580204717</v>
       </c>
       <c r="R12">
-        <v>10949.94056658806</v>
+        <v>4554.599221842453</v>
       </c>
       <c r="S12">
-        <v>0.1333528341086479</v>
+        <v>0.09459167560212363</v>
       </c>
       <c r="T12">
-        <v>0.1804889809794568</v>
+        <v>0.1309485606794501</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>98.26071899999999</v>
       </c>
       <c r="I13">
-        <v>0.5621840768235339</v>
+        <v>0.6187742881378531</v>
       </c>
       <c r="J13">
-        <v>0.6104165397692691</v>
+        <v>0.7072248972319991</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.312984333333333</v>
+        <v>10.313018</v>
       </c>
       <c r="N13">
-        <v>27.938953</v>
+        <v>30.939054</v>
       </c>
       <c r="O13">
-        <v>0.05947055784379619</v>
+        <v>0.1020369479764247</v>
       </c>
       <c r="P13">
-        <v>0.07413148552752709</v>
+        <v>0.1235890484643348</v>
       </c>
       <c r="Q13">
-        <v>305.0335122096896</v>
+        <v>337.7881879133139</v>
       </c>
       <c r="R13">
-        <v>2745.301609887207</v>
+        <v>3040.093691219826</v>
       </c>
       <c r="S13">
-        <v>0.03343340065959514</v>
+        <v>0.06313783984787137</v>
       </c>
       <c r="T13">
-        <v>0.04525108488366874</v>
+        <v>0.0874052520991897</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.3556395</v>
+        <v>1.903653</v>
       </c>
       <c r="H14">
-        <v>2.711279</v>
+        <v>3.807306</v>
       </c>
       <c r="I14">
-        <v>0.02326826880270489</v>
+        <v>0.03596345137480081</v>
       </c>
       <c r="J14">
-        <v>0.01684304330735749</v>
+        <v>0.02740282812891664</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>84.78612150000001</v>
+        <v>41.6173</v>
       </c>
       <c r="N14">
-        <v>169.572243</v>
+        <v>83.2346</v>
       </c>
       <c r="O14">
-        <v>0.5414245061026678</v>
+        <v>0.411761355892064</v>
       </c>
       <c r="P14">
-        <v>0.4499324752013724</v>
+        <v>0.3324886731607734</v>
       </c>
       <c r="Q14">
-        <v>114.9394153571993</v>
+        <v>79.2248979969</v>
       </c>
       <c r="R14">
-        <v>459.7576614287971</v>
+        <v>316.8995919876</v>
       </c>
       <c r="S14">
-        <v>0.01259801094436861</v>
+        <v>0.01480835950064629</v>
       </c>
       <c r="T14">
-        <v>0.007578232165203263</v>
+        <v>0.009111129965436213</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.3556395</v>
+        <v>1.903653</v>
       </c>
       <c r="H15">
-        <v>2.711279</v>
+        <v>3.807306</v>
       </c>
       <c r="I15">
-        <v>0.02326826880270489</v>
+        <v>0.03596345137480081</v>
       </c>
       <c r="J15">
-        <v>0.01684304330735749</v>
+        <v>0.02740282812891664</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.941352</v>
       </c>
       <c r="O15">
-        <v>0.05734707497829552</v>
+        <v>0.08885253351439082</v>
       </c>
       <c r="P15">
-        <v>0.07148451289065891</v>
+        <v>0.1076198405427232</v>
       </c>
       <c r="Q15">
-        <v>12.17425365153467</v>
+        <v>17.095661852952</v>
       </c>
       <c r="R15">
-        <v>73.04552190920801</v>
+        <v>102.573971117712</v>
       </c>
       <c r="S15">
-        <v>0.001334367155643852</v>
+        <v>0.003195443768572654</v>
       </c>
       <c r="T15">
-        <v>0.001204016746422722</v>
+        <v>0.002949087993653659</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.3556395</v>
+        <v>1.903653</v>
       </c>
       <c r="H16">
-        <v>2.711279</v>
+        <v>3.807306</v>
       </c>
       <c r="I16">
-        <v>0.02326826880270489</v>
+        <v>0.03596345137480081</v>
       </c>
       <c r="J16">
-        <v>0.01684304330735749</v>
+        <v>0.02740282812891664</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.247984000000001</v>
+        <v>13.45113833333333</v>
       </c>
       <c r="N16">
-        <v>24.743952</v>
+        <v>40.353415</v>
       </c>
       <c r="O16">
-        <v>0.05266971273762895</v>
+        <v>0.1330854946963174</v>
       </c>
       <c r="P16">
-        <v>0.06565406798106663</v>
+        <v>0.1611956255073737</v>
       </c>
       <c r="Q16">
-        <v>11.181292905768</v>
+        <v>25.606299841665</v>
       </c>
       <c r="R16">
-        <v>67.08775743460801</v>
+        <v>153.63779904999</v>
       </c>
       <c r="S16">
-        <v>0.0012255330337404</v>
+        <v>0.004786213717202323</v>
       </c>
       <c r="T16">
-        <v>0.001105814310309298</v>
+        <v>0.004417216020911774</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.3556395</v>
+        <v>1.903653</v>
       </c>
       <c r="H17">
-        <v>2.711279</v>
+        <v>3.807306</v>
       </c>
       <c r="I17">
-        <v>0.02326826880270489</v>
+        <v>0.03596345137480081</v>
       </c>
       <c r="J17">
-        <v>0.01684304330735749</v>
+        <v>0.02740282812891664</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.1248205</v>
+        <v>11.258772</v>
       </c>
       <c r="N17">
-        <v>16.249641</v>
+        <v>22.517544</v>
       </c>
       <c r="O17">
-        <v>0.05188321919390227</v>
+        <v>0.1113942332731726</v>
       </c>
       <c r="P17">
-        <v>0.04311578986581963</v>
+        <v>0.0899485109245354</v>
       </c>
       <c r="Q17">
-        <v>11.01432760020975</v>
+        <v>21.432795094116</v>
       </c>
       <c r="R17">
-        <v>44.05731040083901</v>
+        <v>85.73118037646401</v>
       </c>
       <c r="S17">
-        <v>0.001207232690553376</v>
+        <v>0.00400612109175296</v>
       </c>
       <c r="T17">
-        <v>0.000726201115940925</v>
+        <v>0.002464843585317024</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.3556395</v>
+        <v>1.903653</v>
       </c>
       <c r="H18">
-        <v>2.711279</v>
+        <v>3.807306</v>
       </c>
       <c r="I18">
-        <v>0.02326826880270489</v>
+        <v>0.03596345137480081</v>
       </c>
       <c r="J18">
-        <v>0.01684304330735749</v>
+        <v>0.02740282812891664</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>37.145873</v>
+        <v>15.450729</v>
       </c>
       <c r="N18">
-        <v>111.437619</v>
+        <v>46.352187</v>
       </c>
       <c r="O18">
-        <v>0.2372049291437092</v>
+        <v>0.1528694346476305</v>
       </c>
       <c r="P18">
-        <v>0.2956816685335552</v>
+        <v>0.1851583014002596</v>
       </c>
       <c r="Q18">
-        <v>50.35641270078351</v>
+        <v>29.412826613037</v>
       </c>
       <c r="R18">
-        <v>302.138476204701</v>
+        <v>176.476959678222</v>
       </c>
       <c r="S18">
-        <v>0.005519348052642393</v>
+        <v>0.00549771247964335</v>
       </c>
       <c r="T18">
-        <v>0.004980179148302392</v>
+        <v>0.00507386110991346</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.3556395</v>
+        <v>1.903653</v>
       </c>
       <c r="H19">
-        <v>2.711279</v>
+        <v>3.807306</v>
       </c>
       <c r="I19">
-        <v>0.02326826880270489</v>
+        <v>0.03596345137480081</v>
       </c>
       <c r="J19">
-        <v>0.01684304330735749</v>
+        <v>0.02740282812891664</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.312984333333333</v>
+        <v>10.313018</v>
       </c>
       <c r="N19">
-        <v>27.938953</v>
+        <v>30.939054</v>
       </c>
       <c r="O19">
-        <v>0.05947055784379619</v>
+        <v>0.1020369479764247</v>
       </c>
       <c r="P19">
-        <v>0.07413148552752709</v>
+        <v>0.1235890484643348</v>
       </c>
       <c r="Q19">
-        <v>12.62504942514783</v>
+        <v>19.632407654754</v>
       </c>
       <c r="R19">
-        <v>75.750296550887</v>
+        <v>117.794445928524</v>
       </c>
       <c r="S19">
-        <v>0.00138377692575626</v>
+        <v>0.003669600816983231</v>
       </c>
       <c r="T19">
-        <v>0.001248599821178883</v>
+        <v>0.003386689453684514</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>11.69705966666667</v>
+        <v>0.3188806666666666</v>
       </c>
       <c r="H20">
-        <v>35.091179</v>
+        <v>0.956642</v>
       </c>
       <c r="I20">
-        <v>0.2007689570311854</v>
+        <v>0.006024233066651711</v>
       </c>
       <c r="J20">
-        <v>0.2179938868715589</v>
+        <v>0.006885366268669519</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.78612150000001</v>
+        <v>41.6173</v>
       </c>
       <c r="N20">
-        <v>169.572243</v>
+        <v>83.2346</v>
       </c>
       <c r="O20">
-        <v>0.5414245061026678</v>
+        <v>0.411761355892064</v>
       </c>
       <c r="P20">
-        <v>0.4499324752013724</v>
+        <v>0.3324886731607734</v>
       </c>
       <c r="Q20">
-        <v>991.7483220907495</v>
+        <v>13.27095236886667</v>
       </c>
       <c r="R20">
-        <v>5950.489932544497</v>
+        <v>79.6257142132</v>
       </c>
       <c r="S20">
-        <v>0.1087012334013573</v>
+        <v>0.002480546375734315</v>
       </c>
       <c r="T20">
-        <v>0.09808252909888847</v>
+        <v>0.002289306294895874</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>11.69705966666667</v>
+        <v>0.3188806666666666</v>
       </c>
       <c r="H21">
-        <v>35.091179</v>
+        <v>0.956642</v>
       </c>
       <c r="I21">
-        <v>0.2007689570311854</v>
+        <v>0.006024233066651711</v>
       </c>
       <c r="J21">
-        <v>0.2179938868715589</v>
+        <v>0.006885366268669519</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.941352</v>
       </c>
       <c r="O21">
-        <v>0.05734707497829552</v>
+        <v>0.08885253351439082</v>
       </c>
       <c r="P21">
-        <v>0.07148451289065891</v>
+        <v>0.1076198405427232</v>
       </c>
       <c r="Q21">
-        <v>105.0448672815564</v>
+        <v>2.863692095553778</v>
       </c>
       <c r="R21">
-        <v>945.403805534008</v>
+        <v>25.773228859984</v>
       </c>
       <c r="S21">
-        <v>0.01151351243218158</v>
+        <v>0.0005352683704531726</v>
       </c>
       <c r="T21">
-        <v>0.01558318681615479</v>
+        <v>0.0007410020199124588</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>11.69705966666667</v>
+        <v>0.3188806666666666</v>
       </c>
       <c r="H22">
-        <v>35.091179</v>
+        <v>0.956642</v>
       </c>
       <c r="I22">
-        <v>0.2007689570311854</v>
+        <v>0.006024233066651711</v>
       </c>
       <c r="J22">
-        <v>0.2179938868715589</v>
+        <v>0.006885366268669519</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.247984000000001</v>
+        <v>13.45113833333333</v>
       </c>
       <c r="N22">
-        <v>24.743952</v>
+        <v>40.353415</v>
       </c>
       <c r="O22">
-        <v>0.05266971273762895</v>
+        <v>0.1330854946963174</v>
       </c>
       <c r="P22">
-        <v>0.06565406798106663</v>
+        <v>0.1611956255073737</v>
       </c>
       <c r="Q22">
-        <v>96.477160977712</v>
+        <v>4.289307959158888</v>
       </c>
       <c r="R22">
-        <v>868.294448799408</v>
+        <v>38.60377163243</v>
       </c>
       <c r="S22">
-        <v>0.0105744432934659</v>
+        <v>0.0008017380378412564</v>
       </c>
       <c r="T22">
-        <v>0.01431218546812228</v>
+        <v>0.001109890922525555</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>11.69705966666667</v>
+        <v>0.3188806666666666</v>
       </c>
       <c r="H23">
-        <v>35.091179</v>
+        <v>0.956642</v>
       </c>
       <c r="I23">
-        <v>0.2007689570311854</v>
+        <v>0.006024233066651711</v>
       </c>
       <c r="J23">
-        <v>0.2179938868715589</v>
+        <v>0.006885366268669519</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.1248205</v>
+        <v>11.258772</v>
       </c>
       <c r="N23">
-        <v>16.249641</v>
+        <v>22.517544</v>
       </c>
       <c r="O23">
-        <v>0.05188321919390227</v>
+        <v>0.1113942332731726</v>
       </c>
       <c r="P23">
-        <v>0.04311578986581963</v>
+        <v>0.0899485109245354</v>
       </c>
       <c r="Q23">
-        <v>95.03651016945651</v>
+        <v>3.590204721208</v>
       </c>
       <c r="R23">
-        <v>570.2190610167389</v>
+        <v>21.541228327248</v>
       </c>
       <c r="S23">
-        <v>0.01041653980498014</v>
+        <v>0.0006710648235185605</v>
       </c>
       <c r="T23">
-        <v>0.00939897861838739</v>
+        <v>0.0006193284430368478</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>11.69705966666667</v>
+        <v>0.3188806666666666</v>
       </c>
       <c r="H24">
-        <v>35.091179</v>
+        <v>0.956642</v>
       </c>
       <c r="I24">
-        <v>0.2007689570311854</v>
+        <v>0.006024233066651711</v>
       </c>
       <c r="J24">
-        <v>0.2179938868715589</v>
+        <v>0.006885366268669519</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.145873</v>
+        <v>15.450729</v>
       </c>
       <c r="N24">
-        <v>111.437619</v>
+        <v>46.352187</v>
       </c>
       <c r="O24">
-        <v>0.2372049291437092</v>
+        <v>0.1528694346476305</v>
       </c>
       <c r="P24">
-        <v>0.2956816685335552</v>
+        <v>0.1851583014002596</v>
       </c>
       <c r="Q24">
-        <v>434.4974928514224</v>
+        <v>4.926938764006</v>
       </c>
       <c r="R24">
-        <v>3910.4774356628</v>
+        <v>44.342448876054</v>
       </c>
       <c r="S24">
-        <v>0.04762338622683873</v>
+        <v>0.0009209211030846087</v>
       </c>
       <c r="T24">
-        <v>0.06445679620029761</v>
+        <v>0.001274882722825492</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>11.69705966666667</v>
+        <v>0.3188806666666666</v>
       </c>
       <c r="H25">
-        <v>35.091179</v>
+        <v>0.956642</v>
       </c>
       <c r="I25">
-        <v>0.2007689570311854</v>
+        <v>0.006024233066651711</v>
       </c>
       <c r="J25">
-        <v>0.2179938868715589</v>
+        <v>0.006885366268669519</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.312984333333333</v>
+        <v>10.313018</v>
       </c>
       <c r="N25">
-        <v>27.938953</v>
+        <v>30.939054</v>
       </c>
       <c r="O25">
-        <v>0.05947055784379619</v>
+        <v>0.1020369479764247</v>
       </c>
       <c r="P25">
-        <v>0.07413148552752709</v>
+        <v>0.1235890484643348</v>
       </c>
       <c r="Q25">
-        <v>108.9345334217319</v>
+        <v>3.288622055185333</v>
       </c>
       <c r="R25">
-        <v>980.4108007955869</v>
+        <v>29.597598496668</v>
       </c>
       <c r="S25">
-        <v>0.01193984187236174</v>
+        <v>0.0006146943560197984</v>
       </c>
       <c r="T25">
-        <v>0.01616021066970835</v>
+        <v>0.000850955865473293</v>
       </c>
     </row>
   </sheetData>
